--- a/planilhas.xlsx
+++ b/planilhas.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16925"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\douglas\git\logs-onedock\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\i844796\git\logs-onedock\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9090" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="asc1perH" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,6 @@
     <definedName name="autoelastic_ascendingVM2perH" localSheetId="5">asc2VMperH!$A$1:$W$147</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -724,48 +723,48 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Ênfase2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Ênfase3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Ênfase4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Ênfase5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Ênfase6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Ênfase1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Ênfase2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Ênfase3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Ênfase4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Ênfase5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Ênfase6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Bom" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Célula de Verificação" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Célula Vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Ênfase1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Ênfase2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Ênfase3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Ênfase4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Ênfase5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Ênfase6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Incorreto" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Neutra" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Nota" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Saída" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texto de Aviso" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Texto Explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Título 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Título 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -783,7 +782,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -831,15 +830,15 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:idx val="1"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>asc2VMperH!$F$1</c:f>
+              <c:f>asc2VMperH!$M$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Total Hosts Ativos</c:v>
+                  <c:v>% Carga de CPU</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -847,7 +846,7 @@
           <c:spPr>
             <a:ln w="15875" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1305,447 +1304,447 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>asc2VMperH!$F$2:$F$147</c:f>
+              <c:f>asc2VMperH!$M$2:$M$147</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="146"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>3.2500000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>0.1125</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>0.23749999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>0.27</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>0.40699999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>0.53400004000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>0.59950000000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2</c:v>
+                  <c:v>0.61699999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2</c:v>
+                  <c:v>0.64400000000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2</c:v>
+                  <c:v>0.6865</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2</c:v>
+                  <c:v>0.69399999999999995</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2</c:v>
+                  <c:v>0.70449996000000004</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2</c:v>
+                  <c:v>0.71650004</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2</c:v>
+                  <c:v>0.73950000000000005</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2</c:v>
+                  <c:v>0.72900003000000002</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2</c:v>
+                  <c:v>0.76149999999999995</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2</c:v>
+                  <c:v>0.76400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2</c:v>
+                  <c:v>0.77400000000000002</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2</c:v>
+                  <c:v>0.78150003999999995</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2</c:v>
+                  <c:v>0.78150003999999995</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2</c:v>
+                  <c:v>0.79400000000000004</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2</c:v>
+                  <c:v>0.79900000000000004</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2</c:v>
+                  <c:v>0.78650003999999996</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2</c:v>
+                  <c:v>0.80649999999999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2</c:v>
+                  <c:v>0.8115</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2</c:v>
+                  <c:v>0.80900000000000005</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2</c:v>
+                  <c:v>0.79400000000000004</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2</c:v>
+                  <c:v>0.78900002999999996</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2</c:v>
+                  <c:v>0.78650003999999996</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2</c:v>
+                  <c:v>0.77900004</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2</c:v>
+                  <c:v>0.74150000000000005</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2</c:v>
+                  <c:v>0.76649999999999996</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2</c:v>
+                  <c:v>0.78650003999999996</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2</c:v>
+                  <c:v>0.78650003999999996</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2</c:v>
+                  <c:v>0.79400000000000004</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2</c:v>
+                  <c:v>0.80400000000000005</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4</c:v>
+                  <c:v>0.40075</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4</c:v>
+                  <c:v>0.71399999999999997</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>4</c:v>
+                  <c:v>0.70525000000000004</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4</c:v>
+                  <c:v>0.73024999999999995</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4</c:v>
+                  <c:v>0.74150000000000005</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4</c:v>
+                  <c:v>0.73399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4</c:v>
+                  <c:v>0.72650002999999996</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>4</c:v>
+                  <c:v>0.73399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>4</c:v>
+                  <c:v>0.73174994999999998</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4</c:v>
+                  <c:v>0.72150004000000001</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4</c:v>
+                  <c:v>0.73150000000000004</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4</c:v>
+                  <c:v>0.74324995000000005</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>4</c:v>
+                  <c:v>0.75649999999999995</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>4</c:v>
+                  <c:v>0.75649999999999995</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>4</c:v>
+                  <c:v>0.76400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>4</c:v>
+                  <c:v>0.75649999999999995</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>4</c:v>
+                  <c:v>0.76524999999999999</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>4</c:v>
+                  <c:v>0.752</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>4</c:v>
+                  <c:v>0.76524999999999999</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>4</c:v>
+                  <c:v>0.75900000000000001</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>4</c:v>
+                  <c:v>0.74775004</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>4</c:v>
+                  <c:v>0.76275000000000004</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>4</c:v>
+                  <c:v>0.77400000000000002</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>4</c:v>
+                  <c:v>0.77775000000000005</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>4</c:v>
+                  <c:v>0.76049999999999995</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>4</c:v>
+                  <c:v>0.78025</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>4</c:v>
+                  <c:v>0.78274999999999995</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>4</c:v>
+                  <c:v>0.74775004</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>4</c:v>
+                  <c:v>0.75824999999999998</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>4</c:v>
+                  <c:v>0.77575000000000005</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>4</c:v>
+                  <c:v>0.78774999999999995</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>4</c:v>
+                  <c:v>0.76649999999999996</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>4</c:v>
+                  <c:v>0.78699993999999995</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>4</c:v>
+                  <c:v>0.77900004</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>4</c:v>
+                  <c:v>0.77649999999999997</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>4</c:v>
+                  <c:v>0.77149999999999996</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>4</c:v>
+                  <c:v>0.79700000000000004</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>4</c:v>
+                  <c:v>0.78774999999999995</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>4</c:v>
+                  <c:v>0.77775000000000005</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>4</c:v>
+                  <c:v>0.78150003999999995</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>4</c:v>
+                  <c:v>0.79800000000000004</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>4</c:v>
+                  <c:v>0.8115</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>4</c:v>
+                  <c:v>0.78900002999999996</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>4</c:v>
+                  <c:v>0.77524999999999999</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>4</c:v>
+                  <c:v>0.78699993999999995</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>4</c:v>
+                  <c:v>0.76900000000000002</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>4</c:v>
+                  <c:v>0.75649999999999995</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>4</c:v>
+                  <c:v>0.77775000000000005</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>4</c:v>
+                  <c:v>0.77400000000000002</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>4</c:v>
+                  <c:v>0.80550003000000003</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>4</c:v>
+                  <c:v>0.75149999999999995</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>4</c:v>
+                  <c:v>0.78900002999999996</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>4</c:v>
+                  <c:v>0.79150003000000002</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>6</c:v>
+                  <c:v>0.69166660000000002</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>6</c:v>
+                  <c:v>0.72583330000000001</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>6</c:v>
+                  <c:v>0.69233334000000002</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>6</c:v>
+                  <c:v>0.71150000000000002</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>6</c:v>
+                  <c:v>0.71733329999999995</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>6</c:v>
+                  <c:v>0.69233334000000002</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>6</c:v>
+                  <c:v>0.72316663999999997</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>6</c:v>
+                  <c:v>0.72066664999999996</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>6</c:v>
+                  <c:v>0.71599995999999999</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>6</c:v>
+                  <c:v>0.73066664000000003</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>6</c:v>
+                  <c:v>0.74099994000000002</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>6</c:v>
+                  <c:v>0.74399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>6</c:v>
+                  <c:v>0.74333329999999997</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>6</c:v>
+                  <c:v>0.7098333</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>6</c:v>
+                  <c:v>0.72316663999999997</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>6</c:v>
+                  <c:v>0.7148333</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>6</c:v>
+                  <c:v>0.70566666</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>6</c:v>
+                  <c:v>0.73566662999999999</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>6</c:v>
+                  <c:v>0.73583335000000005</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>6</c:v>
+                  <c:v>0.73733329999999997</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>6</c:v>
+                  <c:v>0.72150000000000003</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>6</c:v>
+                  <c:v>0.74983334999999995</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>6</c:v>
+                  <c:v>0.73233329999999996</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>6</c:v>
+                  <c:v>0.74250000000000005</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>6</c:v>
+                  <c:v>0.74066659999999995</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>6</c:v>
+                  <c:v>0.71916663999999997</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>6</c:v>
+                  <c:v>0.74483334999999995</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>6</c:v>
+                  <c:v>0.74583330000000003</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>6</c:v>
+                  <c:v>0.73983330000000003</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>6</c:v>
+                  <c:v>0.76316667000000005</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>6</c:v>
+                  <c:v>0.76900000000000002</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>6</c:v>
+                  <c:v>0.74483334999999995</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>6</c:v>
+                  <c:v>0.74499994999999997</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>6</c:v>
+                  <c:v>0.73416669999999995</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>6</c:v>
+                  <c:v>0.75566670000000002</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>6</c:v>
+                  <c:v>0.77283329999999995</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>6</c:v>
+                  <c:v>0.73433333999999995</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>6</c:v>
+                  <c:v>0.75900000000000001</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>6</c:v>
+                  <c:v>0.75866663000000001</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>6</c:v>
+                  <c:v>0.78400000000000003</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>6</c:v>
+                  <c:v>0.78149999999999997</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>6</c:v>
+                  <c:v>0.78733330000000001</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>6</c:v>
+                  <c:v>0.78433335000000004</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>6</c:v>
+                  <c:v>0.77816664999999996</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>6</c:v>
+                  <c:v>0.77249999999999996</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>6</c:v>
+                  <c:v>0.76983330000000005</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>6</c:v>
+                  <c:v>0.76983330000000005</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>6</c:v>
+                  <c:v>0.75983334000000002</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>6</c:v>
+                  <c:v>0.78983329999999996</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>6</c:v>
+                  <c:v>0.81016666000000004</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>6</c:v>
+                  <c:v>0.78900000000000003</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>6</c:v>
+                  <c:v>0.754</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>6</c:v>
+                  <c:v>0.79849999999999999</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>6</c:v>
+                  <c:v>0.78900000000000003</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>6</c:v>
+                  <c:v>0.75149999999999995</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>6</c:v>
+                  <c:v>0.78733330000000001</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>6</c:v>
+                  <c:v>0.53600000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1753,7 +1752,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E46F-4768-B79F-0B80DF6E28BD}"/>
+              <c16:uniqueId val="{00000001-E46F-4768-B79F-0B80DF6E28BD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2947,15 +2946,15 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:idx val="0"/>
+          <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>asc2VMperH!$M$1</c:f>
+              <c:f>asc2VMperH!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>% Carga de CPU</c:v>
+                  <c:v>Total Hosts Ativos</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2963,7 +2962,7 @@
           <c:spPr>
             <a:ln w="15875" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -3421,447 +3420,447 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>asc2VMperH!$M$2:$M$147</c:f>
+              <c:f>asc2VMperH!$F$2:$F$147</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="146"/>
                 <c:pt idx="0">
-                  <c:v>3.2500000000000001E-2</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1125</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.23749999999999999</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.27</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.40699999999999997</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.53400004000000001</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.59950000000000003</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.61699999999999999</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.64400000000000002</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.6865</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.69399999999999995</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.70449996000000004</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.71650004</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.73950000000000005</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.72900003000000002</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.76149999999999995</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.76400000000000001</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.77400000000000002</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.78150003999999995</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.78150003999999995</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.79400000000000004</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.79900000000000004</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.78650003999999996</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.80649999999999999</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.8115</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.80900000000000005</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.79400000000000004</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.78900002999999996</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.78650003999999996</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.77900004</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.74150000000000005</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.76649999999999996</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.78650003999999996</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.78650003999999996</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.79400000000000004</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.80400000000000005</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.40075</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.71399999999999997</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.70525000000000004</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.73024999999999995</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.74150000000000005</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.73399999999999999</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.72650002999999996</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.73399999999999999</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.73174994999999998</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.72150004000000001</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.73150000000000004</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.74324995000000005</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.75649999999999995</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.75649999999999995</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.76400000000000001</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.75649999999999995</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.76524999999999999</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.752</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.76524999999999999</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.75900000000000001</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.74775004</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.76275000000000004</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.77400000000000002</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.77775000000000005</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.76049999999999995</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.78025</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.78274999999999995</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.74775004</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.75824999999999998</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.77575000000000005</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.78774999999999995</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.76649999999999996</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.78699993999999995</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.77900004</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.77649999999999997</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.77149999999999996</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.79700000000000004</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.78774999999999995</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.77775000000000005</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.78150003999999995</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.79800000000000004</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.8115</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.78900002999999996</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.77524999999999999</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.78699993999999995</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.76900000000000002</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.75649999999999995</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.77775000000000005</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.77400000000000002</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.80550003000000003</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.75149999999999995</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.78900002999999996</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.79150003000000002</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.69166660000000002</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.72583330000000001</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.69233334000000002</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.71150000000000002</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.71733329999999995</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.69233334000000002</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.72316663999999997</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.72066664999999996</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.71599995999999999</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.73066664000000003</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.74099994000000002</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.74399999999999999</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0.74333329999999997</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>0.7098333</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0.72316663999999997</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0.7148333</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>0.70566666</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>0.73566662999999999</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>0.73583335000000005</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>0.73733329999999997</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>0.72150000000000003</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>0.74983334999999995</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>0.73233329999999996</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>0.74250000000000005</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>0.74066659999999995</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>0.71916663999999997</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>0.74483334999999995</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>0.74583330000000003</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>0.73983330000000003</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>0.76316667000000005</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>0.76900000000000002</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>0.74483334999999995</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>0.74499994999999997</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>0.73416669999999995</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>0.75566670000000002</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>0.77283329999999995</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>0.73433333999999995</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>0.75900000000000001</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>0.75866663000000001</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>0.78400000000000003</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>0.78149999999999997</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>0.78733330000000001</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>0.78433335000000004</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>0.77816664999999996</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>0.77249999999999996</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>0.76983330000000005</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>0.76983330000000005</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>0.75983334000000002</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>0.78983329999999996</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>0.81016666000000004</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>0.78900000000000003</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>0.754</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>0.79849999999999999</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>0.78900000000000003</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>0.75149999999999995</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>0.78733330000000001</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>0.53600000000000003</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3869,7 +3868,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E46F-4768-B79F-0B80DF6E28BD}"/>
+              <c16:uniqueId val="{00000000-E46F-4768-B79F-0B80DF6E28BD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3881,8 +3880,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="384018456"/>
-        <c:axId val="384015832"/>
+        <c:axId val="571723528"/>
+        <c:axId val="571722544"/>
       </c:scatterChart>
       <c:valAx>
         <c:axId val="565175048"/>
@@ -3919,9 +3918,9 @@
           </c:spPr>
         </c:minorGridlines>
         <c:numFmt formatCode="[$-F400]h:mm:ss\ AM/PM" sourceLinked="1"/>
-        <c:majorTickMark val="in"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="low"/>
+        <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln>
@@ -3935,7 +3934,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -3962,8 +3961,9 @@
         <c:axId val="565178328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
-        <c:delete val="1"/>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -3980,15 +3980,42 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="565175048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="384015832"/>
+        <c:axId val="571722544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4025,12 +4052,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="384018456"/>
+        <c:crossAx val="571723528"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="384018456"/>
+        <c:axId val="571723528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4040,7 +4067,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="384015832"/>
+        <c:crossAx val="571722544"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -4688,16 +4715,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>220980</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>240030</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>579120</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5050,33 +5077,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R243"/>
   <sheetViews>
-    <sheetView topLeftCell="A223" workbookViewId="0">
-      <selection activeCell="E243" sqref="E243"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="18.21875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5127,7 +5154,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>8</v>
       </c>
@@ -5182,7 +5209,7 @@
         <v>1492006122</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>9</v>
       </c>
@@ -5237,7 +5264,7 @@
         <v>1492006142</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10</v>
       </c>
@@ -5292,7 +5319,7 @@
         <v>1492006154</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>11</v>
       </c>
@@ -5347,7 +5374,7 @@
         <v>1492006162</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>12</v>
       </c>
@@ -5402,7 +5429,7 @@
         <v>1492006183</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>13</v>
       </c>
@@ -5457,7 +5484,7 @@
         <v>1492006197</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>14</v>
       </c>
@@ -5512,7 +5539,7 @@
         <v>1492006209</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>15</v>
       </c>
@@ -5567,7 +5594,7 @@
         <v>1492006227</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>16</v>
       </c>
@@ -5622,7 +5649,7 @@
         <v>1492006247</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>17</v>
       </c>
@@ -5677,7 +5704,7 @@
         <v>1492006260</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>18</v>
       </c>
@@ -5732,7 +5759,7 @@
         <v>1492006267</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>19</v>
       </c>
@@ -5787,7 +5814,7 @@
         <v>1492006287</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>20</v>
       </c>
@@ -5842,7 +5869,7 @@
         <v>1492006308</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>21</v>
       </c>
@@ -5897,7 +5924,7 @@
         <v>1492006321</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>22</v>
       </c>
@@ -5952,7 +5979,7 @@
         <v>1492006328</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>23</v>
       </c>
@@ -6007,7 +6034,7 @@
         <v>1492006347</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>24</v>
       </c>
@@ -6062,7 +6089,7 @@
         <v>1492006367</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>25</v>
       </c>
@@ -6117,7 +6144,7 @@
         <v>1492006367</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>26</v>
       </c>
@@ -6172,7 +6199,7 @@
         <v>1492006392</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>27</v>
       </c>
@@ -6227,7 +6254,7 @@
         <v>1492006408</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>28</v>
       </c>
@@ -6282,7 +6309,7 @@
         <v>1492006428</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>29</v>
       </c>
@@ -6337,7 +6364,7 @@
         <v>1492006428</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>30</v>
       </c>
@@ -6392,7 +6419,7 @@
         <v>1492006452</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>31</v>
       </c>
@@ -6447,7 +6474,7 @@
         <v>1492006472</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>32</v>
       </c>
@@ -6502,7 +6529,7 @@
         <v>1492006486</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>33</v>
       </c>
@@ -6557,7 +6584,7 @@
         <v>1492006492</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>34</v>
       </c>
@@ -6612,7 +6639,7 @@
         <v>1492006512</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>35</v>
       </c>
@@ -6667,7 +6694,7 @@
         <v>1492006526</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>36</v>
       </c>
@@ -6722,7 +6749,7 @@
         <v>1492006535</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>37</v>
       </c>
@@ -6777,7 +6804,7 @@
         <v>1492006535</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>38</v>
       </c>
@@ -6832,7 +6859,7 @@
         <v>1492006535</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>39</v>
       </c>
@@ -6887,7 +6914,7 @@
         <v>1492006591</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>40</v>
       </c>
@@ -6942,7 +6969,7 @@
         <v>1492006599</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>41</v>
       </c>
@@ -6997,7 +7024,7 @@
         <v>1492006617</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>42</v>
       </c>
@@ -7052,7 +7079,7 @@
         <v>1492006636</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>43</v>
       </c>
@@ -7107,7 +7134,7 @@
         <v>1492006651</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>44</v>
       </c>
@@ -7162,7 +7189,7 @@
         <v>1492006667</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>45</v>
       </c>
@@ -7217,7 +7244,7 @@
         <v>1492006672</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>46</v>
       </c>
@@ -7272,7 +7299,7 @@
         <v>1492006697</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>47</v>
       </c>
@@ -7327,7 +7354,7 @@
         <v>1492006712</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>48</v>
       </c>
@@ -7382,7 +7409,7 @@
         <v>1492006718</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>49</v>
       </c>
@@ -7437,7 +7464,7 @@
         <v>1492006738</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>50</v>
       </c>
@@ -7492,7 +7519,7 @@
         <v>1492006757</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>51</v>
       </c>
@@ -7547,7 +7574,7 @@
         <v>1492006770</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>52</v>
       </c>
@@ -7602,7 +7629,7 @@
         <v>1492006777</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>53</v>
       </c>
@@ -7657,7 +7684,7 @@
         <v>1492006797</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>54</v>
       </c>
@@ -7712,7 +7739,7 @@
         <v>1492006817</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>55</v>
       </c>
@@ -7767,7 +7794,7 @@
         <v>1492006830</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>56</v>
       </c>
@@ -7822,7 +7849,7 @@
         <v>1492006837</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>57</v>
       </c>
@@ -7877,7 +7904,7 @@
         <v>1492006857</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>58</v>
       </c>
@@ -7932,7 +7959,7 @@
         <v>1492006877</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>59</v>
       </c>
@@ -7987,7 +8014,7 @@
         <v>1492006890</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>60</v>
       </c>
@@ -8042,7 +8069,7 @@
         <v>1492006900</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>61</v>
       </c>
@@ -8097,7 +8124,7 @@
         <v>1492006917</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>62</v>
       </c>
@@ -8152,7 +8179,7 @@
         <v>1492006931</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>63</v>
       </c>
@@ -8207,7 +8234,7 @@
         <v>1492006946</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>64</v>
       </c>
@@ -8262,7 +8289,7 @@
         <v>1492006965</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>65</v>
       </c>
@@ -8317,7 +8344,7 @@
         <v>1492006983</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>66</v>
       </c>
@@ -8372,7 +8399,7 @@
         <v>1492006996</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>67</v>
       </c>
@@ -8427,7 +8454,7 @@
         <v>1492007005</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>68</v>
       </c>
@@ -8482,7 +8509,7 @@
         <v>1492007022</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>69</v>
       </c>
@@ -8537,7 +8564,7 @@
         <v>1492007042</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>70</v>
       </c>
@@ -8592,7 +8619,7 @@
         <v>1492007056</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>71</v>
       </c>
@@ -8647,7 +8674,7 @@
         <v>1492007062</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>72</v>
       </c>
@@ -8702,7 +8729,7 @@
         <v>1492007083</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>73</v>
       </c>
@@ -8757,7 +8784,7 @@
         <v>1492007102</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>74</v>
       </c>
@@ -8812,7 +8839,7 @@
         <v>1492007102</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>75</v>
       </c>
@@ -8867,7 +8894,7 @@
         <v>1492007123</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>76</v>
       </c>
@@ -8922,7 +8949,7 @@
         <v>1492007143</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>77</v>
       </c>
@@ -8977,7 +9004,7 @@
         <v>1492007163</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>78</v>
       </c>
@@ -9032,7 +9059,7 @@
         <v>1492007177</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>79</v>
       </c>
@@ -9087,7 +9114,7 @@
         <v>1492007190</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>80</v>
       </c>
@@ -9142,7 +9169,7 @@
         <v>1492007208</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>81</v>
       </c>
@@ -9197,7 +9224,7 @@
         <v>1492007221</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>82</v>
       </c>
@@ -9252,7 +9279,7 @@
         <v>1492007227</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>83</v>
       </c>
@@ -9307,7 +9334,7 @@
         <v>1492007247</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>84</v>
       </c>
@@ -9362,7 +9389,7 @@
         <v>1492007267</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>85</v>
       </c>
@@ -9417,7 +9444,7 @@
         <v>1492007280</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>86</v>
       </c>
@@ -9472,7 +9499,7 @@
         <v>1492007287</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>87</v>
       </c>
@@ -9527,7 +9554,7 @@
         <v>1492007307</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>88</v>
       </c>
@@ -9582,7 +9609,7 @@
         <v>1492007328</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>89</v>
       </c>
@@ -9637,7 +9664,7 @@
         <v>1492007340</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>90</v>
       </c>
@@ -9692,7 +9719,7 @@
         <v>1492007347</v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>91</v>
       </c>
@@ -9747,7 +9774,7 @@
         <v>1492007367</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>92</v>
       </c>
@@ -9802,7 +9829,7 @@
         <v>1492007387</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>93</v>
       </c>
@@ -9857,7 +9884,7 @@
         <v>1492007401</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>94</v>
       </c>
@@ -9912,7 +9939,7 @@
         <v>1492007413</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>95</v>
       </c>
@@ -9967,7 +9994,7 @@
         <v>1492007427</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>96</v>
       </c>
@@ -10022,7 +10049,7 @@
         <v>1492007448</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>97</v>
       </c>
@@ -10077,7 +10104,7 @@
         <v>1492007452</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>98</v>
       </c>
@@ -10132,7 +10159,7 @@
         <v>1492007472</v>
       </c>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>99</v>
       </c>
@@ -10187,7 +10214,7 @@
         <v>1492007492</v>
       </c>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>100</v>
       </c>
@@ -10242,7 +10269,7 @@
         <v>1492007506</v>
       </c>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>101</v>
       </c>
@@ -10297,7 +10324,7 @@
         <v>1492007514</v>
       </c>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>102</v>
       </c>
@@ -10352,7 +10379,7 @@
         <v>1492007532</v>
       </c>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>103</v>
       </c>
@@ -10407,7 +10434,7 @@
         <v>1492007553</v>
       </c>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>104</v>
       </c>
@@ -10462,7 +10489,7 @@
         <v>1492007567</v>
       </c>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>105</v>
       </c>
@@ -10517,7 +10544,7 @@
         <v>1492007572</v>
       </c>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>106</v>
       </c>
@@ -10572,7 +10599,7 @@
         <v>1492007592</v>
       </c>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>107</v>
       </c>
@@ -10627,7 +10654,7 @@
         <v>1492007605</v>
       </c>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>108</v>
       </c>
@@ -10682,7 +10709,7 @@
         <v>1492007626</v>
       </c>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>109</v>
       </c>
@@ -10737,7 +10764,7 @@
         <v>1492007632</v>
       </c>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>110</v>
       </c>
@@ -10792,7 +10819,7 @@
         <v>1492007658</v>
       </c>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>111</v>
       </c>
@@ -10847,7 +10874,7 @@
         <v>1492007671</v>
       </c>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>112</v>
       </c>
@@ -10902,7 +10929,7 @@
         <v>1492007677</v>
       </c>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>113</v>
       </c>
@@ -10957,7 +10984,7 @@
         <v>1492007697</v>
       </c>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>114</v>
       </c>
@@ -11012,7 +11039,7 @@
         <v>1492007718</v>
       </c>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>115</v>
       </c>
@@ -11067,7 +11094,7 @@
         <v>1492007731</v>
       </c>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>116</v>
       </c>
@@ -11122,7 +11149,7 @@
         <v>1492007737</v>
       </c>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>117</v>
       </c>
@@ -11177,7 +11204,7 @@
         <v>1492007757</v>
       </c>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>118</v>
       </c>
@@ -11232,7 +11259,7 @@
         <v>1492007777</v>
       </c>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>119</v>
       </c>
@@ -11287,7 +11314,7 @@
         <v>1492007790</v>
       </c>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>120</v>
       </c>
@@ -11342,7 +11369,7 @@
         <v>1492007797</v>
       </c>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>121</v>
       </c>
@@ -11397,7 +11424,7 @@
         <v>1492007819</v>
       </c>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>122</v>
       </c>
@@ -11452,7 +11479,7 @@
         <v>1492007838</v>
       </c>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>123</v>
       </c>
@@ -11507,7 +11534,7 @@
         <v>1492007851</v>
       </c>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>124</v>
       </c>
@@ -11562,7 +11589,7 @@
         <v>1492007857</v>
       </c>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>125</v>
       </c>
@@ -11617,7 +11644,7 @@
         <v>1492007883</v>
       </c>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>126</v>
       </c>
@@ -11672,7 +11699,7 @@
         <v>1492007896</v>
       </c>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>127</v>
       </c>
@@ -11727,7 +11754,7 @@
         <v>1492007902</v>
       </c>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>128</v>
       </c>
@@ -11782,7 +11809,7 @@
         <v>1492007922</v>
       </c>
     </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>129</v>
       </c>
@@ -11837,7 +11864,7 @@
         <v>1492007942</v>
       </c>
     </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>130</v>
       </c>
@@ -11892,7 +11919,7 @@
         <v>1492007956</v>
       </c>
     </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>131</v>
       </c>
@@ -11947,7 +11974,7 @@
         <v>1492007962</v>
       </c>
     </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>132</v>
       </c>
@@ -12002,7 +12029,7 @@
         <v>1492007983</v>
       </c>
     </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>133</v>
       </c>
@@ -12057,7 +12084,7 @@
         <v>1492008003</v>
       </c>
     </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>134</v>
       </c>
@@ -12112,7 +12139,7 @@
         <v>1492008016</v>
       </c>
     </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>135</v>
       </c>
@@ -12167,7 +12194,7 @@
         <v>1492008022</v>
       </c>
     </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>136</v>
       </c>
@@ -12222,7 +12249,7 @@
         <v>1492008043</v>
       </c>
     </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>137</v>
       </c>
@@ -12277,7 +12304,7 @@
         <v>1492008062</v>
       </c>
     </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>138</v>
       </c>
@@ -12332,7 +12359,7 @@
         <v>1492008075</v>
       </c>
     </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>139</v>
       </c>
@@ -12387,7 +12414,7 @@
         <v>1492008082</v>
       </c>
     </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>140</v>
       </c>
@@ -12442,7 +12469,7 @@
         <v>1492008102</v>
       </c>
     </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>141</v>
       </c>
@@ -12497,7 +12524,7 @@
         <v>1492008118</v>
       </c>
     </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>142</v>
       </c>
@@ -12552,7 +12579,7 @@
         <v>1492008131</v>
       </c>
     </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>143</v>
       </c>
@@ -12607,7 +12634,7 @@
         <v>1492008147</v>
       </c>
     </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>144</v>
       </c>
@@ -12662,7 +12689,7 @@
         <v>1492008167</v>
       </c>
     </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>145</v>
       </c>
@@ -12717,7 +12744,7 @@
         <v>1492008180</v>
       </c>
     </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>146</v>
       </c>
@@ -12772,7 +12799,7 @@
         <v>1492008187</v>
       </c>
     </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>147</v>
       </c>
@@ -12827,7 +12854,7 @@
         <v>1492008209</v>
       </c>
     </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>148</v>
       </c>
@@ -12882,7 +12909,7 @@
         <v>1492008227</v>
       </c>
     </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>149</v>
       </c>
@@ -12937,7 +12964,7 @@
         <v>1492008241</v>
       </c>
     </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>150</v>
       </c>
@@ -12992,7 +13019,7 @@
         <v>1492008248</v>
       </c>
     </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>151</v>
       </c>
@@ -13047,7 +13074,7 @@
         <v>1492008267</v>
       </c>
     </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>152</v>
       </c>
@@ -13102,7 +13129,7 @@
         <v>1492008288</v>
       </c>
     </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>153</v>
       </c>
@@ -13157,7 +13184,7 @@
         <v>1492008301</v>
       </c>
     </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>154</v>
       </c>
@@ -13212,7 +13239,7 @@
         <v>1492008309</v>
       </c>
     </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>155</v>
       </c>
@@ -13267,7 +13294,7 @@
         <v>1492008327</v>
       </c>
     </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>156</v>
       </c>
@@ -13322,7 +13349,7 @@
         <v>1492008348</v>
       </c>
     </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>157</v>
       </c>
@@ -13377,7 +13404,7 @@
         <v>1492008348</v>
       </c>
     </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>158</v>
       </c>
@@ -13432,7 +13459,7 @@
         <v>1492008372</v>
       </c>
     </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>159</v>
       </c>
@@ -13487,7 +13514,7 @@
         <v>1492008393</v>
       </c>
     </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>160</v>
       </c>
@@ -13542,7 +13569,7 @@
         <v>1492008404</v>
       </c>
     </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>161</v>
       </c>
@@ -13597,7 +13624,7 @@
         <v>1492008412</v>
       </c>
     </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>162</v>
       </c>
@@ -13652,7 +13679,7 @@
         <v>1492008432</v>
       </c>
     </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>163</v>
       </c>
@@ -13707,7 +13734,7 @@
         <v>1492008452</v>
       </c>
     </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>164</v>
       </c>
@@ -13762,7 +13789,7 @@
         <v>1492008465</v>
       </c>
     </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>165</v>
       </c>
@@ -13817,7 +13844,7 @@
         <v>1492008472</v>
       </c>
     </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>166</v>
       </c>
@@ -13872,7 +13899,7 @@
         <v>1492008492</v>
       </c>
     </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>167</v>
       </c>
@@ -13927,7 +13954,7 @@
         <v>1492008513</v>
       </c>
     </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>168</v>
       </c>
@@ -13982,7 +14009,7 @@
         <v>1492008525</v>
       </c>
     </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>169</v>
       </c>
@@ -14037,7 +14064,7 @@
         <v>1492008533</v>
       </c>
     </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>170</v>
       </c>
@@ -14092,7 +14119,7 @@
         <v>1492008552</v>
       </c>
     </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>171</v>
       </c>
@@ -14147,7 +14174,7 @@
         <v>1492008572</v>
       </c>
     </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>172</v>
       </c>
@@ -14202,7 +14229,7 @@
         <v>1492008586</v>
       </c>
     </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>173</v>
       </c>
@@ -14257,7 +14284,7 @@
         <v>1492008599</v>
       </c>
     </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>174</v>
       </c>
@@ -14312,7 +14339,7 @@
         <v>1492008617</v>
       </c>
     </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>175</v>
       </c>
@@ -14367,7 +14394,7 @@
         <v>1492008630</v>
       </c>
     </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>176</v>
       </c>
@@ -14422,7 +14449,7 @@
         <v>1492008637</v>
       </c>
     </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>177</v>
       </c>
@@ -14477,7 +14504,7 @@
         <v>1492008657</v>
       </c>
     </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>178</v>
       </c>
@@ -14532,7 +14559,7 @@
         <v>1492008672</v>
       </c>
     </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>179</v>
       </c>
@@ -14587,7 +14614,7 @@
         <v>1492008672</v>
       </c>
     </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>180</v>
       </c>
@@ -14642,7 +14669,7 @@
         <v>1492008706</v>
       </c>
     </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>181</v>
       </c>
@@ -14697,7 +14724,7 @@
         <v>1492008719</v>
       </c>
     </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>182</v>
       </c>
@@ -14752,7 +14779,7 @@
         <v>1492008731</v>
       </c>
     </row>
-    <row r="177" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>183</v>
       </c>
@@ -14807,7 +14834,7 @@
         <v>1492008731</v>
       </c>
     </row>
-    <row r="178" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>184</v>
       </c>
@@ -14862,7 +14889,7 @@
         <v>1492008763</v>
       </c>
     </row>
-    <row r="179" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>185</v>
       </c>
@@ -14917,7 +14944,7 @@
         <v>1492008780</v>
       </c>
     </row>
-    <row r="180" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>186</v>
       </c>
@@ -14972,7 +14999,7 @@
         <v>1492008780</v>
       </c>
     </row>
-    <row r="181" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>187</v>
       </c>
@@ -15027,7 +15054,7 @@
         <v>1492008803</v>
       </c>
     </row>
-    <row r="182" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>188</v>
       </c>
@@ -15082,7 +15109,7 @@
         <v>1492008824</v>
       </c>
     </row>
-    <row r="183" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>189</v>
       </c>
@@ -15137,7 +15164,7 @@
         <v>1492008843</v>
       </c>
     </row>
-    <row r="184" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>190</v>
       </c>
@@ -15192,7 +15219,7 @@
         <v>1492008857</v>
       </c>
     </row>
-    <row r="185" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>191</v>
       </c>
@@ -15247,7 +15274,7 @@
         <v>1492008863</v>
       </c>
     </row>
-    <row r="186" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>192</v>
       </c>
@@ -15302,7 +15329,7 @@
         <v>1492008882</v>
       </c>
     </row>
-    <row r="187" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>193</v>
       </c>
@@ -15357,7 +15384,7 @@
         <v>1492008902</v>
       </c>
     </row>
-    <row r="188" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>194</v>
       </c>
@@ -15412,7 +15439,7 @@
         <v>1492008915</v>
       </c>
     </row>
-    <row r="189" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>195</v>
       </c>
@@ -15467,7 +15494,7 @@
         <v>1492008923</v>
       </c>
     </row>
-    <row r="190" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>196</v>
       </c>
@@ -15522,7 +15549,7 @@
         <v>1492008942</v>
       </c>
     </row>
-    <row r="191" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>197</v>
       </c>
@@ -15577,7 +15604,7 @@
         <v>1492008963</v>
       </c>
     </row>
-    <row r="192" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>198</v>
       </c>
@@ -15632,7 +15659,7 @@
         <v>1492008976</v>
       </c>
     </row>
-    <row r="193" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>199</v>
       </c>
@@ -15687,7 +15714,7 @@
         <v>1492008982</v>
       </c>
     </row>
-    <row r="194" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>200</v>
       </c>
@@ -15742,7 +15769,7 @@
         <v>1492009004</v>
       </c>
     </row>
-    <row r="195" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>201</v>
       </c>
@@ -15797,7 +15824,7 @@
         <v>1492009022</v>
       </c>
     </row>
-    <row r="196" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>202</v>
       </c>
@@ -15852,7 +15879,7 @@
         <v>1492009035</v>
       </c>
     </row>
-    <row r="197" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>203</v>
       </c>
@@ -15907,7 +15934,7 @@
         <v>1492009042</v>
       </c>
     </row>
-    <row r="198" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>204</v>
       </c>
@@ -15962,7 +15989,7 @@
         <v>1492009067</v>
       </c>
     </row>
-    <row r="199" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>205</v>
       </c>
@@ -16017,7 +16044,7 @@
         <v>1492009082</v>
       </c>
     </row>
-    <row r="200" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>206</v>
       </c>
@@ -16072,7 +16099,7 @@
         <v>1492009087</v>
       </c>
     </row>
-    <row r="201" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>207</v>
       </c>
@@ -16127,7 +16154,7 @@
         <v>1492009109</v>
       </c>
     </row>
-    <row r="202" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>208</v>
       </c>
@@ -16182,7 +16209,7 @@
         <v>1492009127</v>
       </c>
     </row>
-    <row r="203" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>209</v>
       </c>
@@ -16237,7 +16264,7 @@
         <v>1492009127</v>
       </c>
     </row>
-    <row r="204" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>210</v>
       </c>
@@ -16292,7 +16319,7 @@
         <v>1492009148</v>
       </c>
     </row>
-    <row r="205" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>211</v>
       </c>
@@ -16347,7 +16374,7 @@
         <v>1492009168</v>
       </c>
     </row>
-    <row r="206" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>212</v>
       </c>
@@ -16402,7 +16429,7 @@
         <v>1492009182</v>
       </c>
     </row>
-    <row r="207" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>213</v>
       </c>
@@ -16457,7 +16484,7 @@
         <v>1492009202</v>
       </c>
     </row>
-    <row r="208" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>214</v>
       </c>
@@ -16512,7 +16539,7 @@
         <v>1492009207</v>
       </c>
     </row>
-    <row r="209" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>215</v>
       </c>
@@ -16567,7 +16594,7 @@
         <v>1492009227</v>
       </c>
     </row>
-    <row r="210" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>216</v>
       </c>
@@ -16622,7 +16649,7 @@
         <v>1492009247</v>
       </c>
     </row>
-    <row r="211" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>217</v>
       </c>
@@ -16677,7 +16704,7 @@
         <v>1492009247</v>
       </c>
     </row>
-    <row r="212" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>218</v>
       </c>
@@ -16732,7 +16759,7 @@
         <v>1492009267</v>
       </c>
     </row>
-    <row r="213" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>219</v>
       </c>
@@ -16787,7 +16814,7 @@
         <v>1492009292</v>
       </c>
     </row>
-    <row r="214" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>220</v>
       </c>
@@ -16842,7 +16869,7 @@
         <v>1492009295</v>
       </c>
     </row>
-    <row r="215" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>221</v>
       </c>
@@ -16897,7 +16924,7 @@
         <v>1492009312</v>
       </c>
     </row>
-    <row r="216" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>222</v>
       </c>
@@ -16952,7 +16979,7 @@
         <v>1492009332</v>
       </c>
     </row>
-    <row r="217" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>223</v>
       </c>
@@ -17007,7 +17034,7 @@
         <v>1492009353</v>
       </c>
     </row>
-    <row r="218" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>224</v>
       </c>
@@ -17062,7 +17089,7 @@
         <v>1492009353</v>
       </c>
     </row>
-    <row r="219" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>225</v>
       </c>
@@ -17117,7 +17144,7 @@
         <v>1492009372</v>
       </c>
     </row>
-    <row r="220" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>226</v>
       </c>
@@ -17172,7 +17199,7 @@
         <v>1492009395</v>
       </c>
     </row>
-    <row r="221" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>227</v>
       </c>
@@ -17227,7 +17254,7 @@
         <v>1492009413</v>
       </c>
     </row>
-    <row r="222" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>228</v>
       </c>
@@ -17282,7 +17309,7 @@
         <v>1492009413</v>
       </c>
     </row>
-    <row r="223" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>229</v>
       </c>
@@ -17337,7 +17364,7 @@
         <v>1492009432</v>
       </c>
     </row>
-    <row r="224" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>230</v>
       </c>
@@ -17392,7 +17419,7 @@
         <v>1492009452</v>
       </c>
     </row>
-    <row r="225" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>231</v>
       </c>
@@ -17447,7 +17474,7 @@
         <v>1492009472</v>
       </c>
     </row>
-    <row r="226" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>232</v>
       </c>
@@ -17502,7 +17529,7 @@
         <v>1492009486</v>
       </c>
     </row>
-    <row r="227" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>233</v>
       </c>
@@ -17557,7 +17584,7 @@
         <v>1492009493</v>
       </c>
     </row>
-    <row r="228" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>234</v>
       </c>
@@ -17612,7 +17639,7 @@
         <v>1492009517</v>
       </c>
     </row>
-    <row r="229" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>235</v>
       </c>
@@ -17667,7 +17694,7 @@
         <v>1492009530</v>
       </c>
     </row>
-    <row r="230" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>236</v>
       </c>
@@ -17722,7 +17749,7 @@
         <v>1492009537</v>
       </c>
     </row>
-    <row r="231" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>237</v>
       </c>
@@ -17777,7 +17804,7 @@
         <v>1492009558</v>
       </c>
     </row>
-    <row r="232" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>238</v>
       </c>
@@ -17832,7 +17859,7 @@
         <v>1492009578</v>
       </c>
     </row>
-    <row r="233" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>239</v>
       </c>
@@ -17887,7 +17914,7 @@
         <v>1492009593</v>
       </c>
     </row>
-    <row r="234" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>240</v>
       </c>
@@ -17942,7 +17969,7 @@
         <v>1492009597</v>
       </c>
     </row>
-    <row r="235" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>241</v>
       </c>
@@ -17997,7 +18024,7 @@
         <v>1492009617</v>
       </c>
     </row>
-    <row r="236" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>242</v>
       </c>
@@ -18052,7 +18079,7 @@
         <v>1492009637</v>
       </c>
     </row>
-    <row r="237" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>243</v>
       </c>
@@ -18107,7 +18134,7 @@
         <v>1492009651</v>
       </c>
     </row>
-    <row r="238" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>244</v>
       </c>
@@ -18162,7 +18189,7 @@
         <v>1492009658</v>
       </c>
     </row>
-    <row r="239" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>245</v>
       </c>
@@ -18217,7 +18244,7 @@
         <v>1492009678</v>
       </c>
     </row>
-    <row r="240" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>246</v>
       </c>
@@ -18272,7 +18299,7 @@
         <v>1492009698</v>
       </c>
     </row>
-    <row r="241" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>247</v>
       </c>
@@ -18327,7 +18354,7 @@
         <v>1492009712</v>
       </c>
     </row>
-    <row r="242" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>248</v>
       </c>
@@ -18382,7 +18409,7 @@
         <v>1492009717</v>
       </c>
     </row>
-    <row r="243" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>249</v>
       </c>
@@ -18447,33 +18474,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U105"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E105" sqref="E105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" customWidth="1"/>
-    <col min="6" max="6" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="18" max="21" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -18520,7 +18547,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10</v>
       </c>
@@ -18578,7 +18605,7 @@
         <v>1492014829</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>11</v>
       </c>
@@ -18636,7 +18663,7 @@
         <v>1492014833</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>12</v>
       </c>
@@ -18694,7 +18721,7 @@
         <v>1492014853</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>13</v>
       </c>
@@ -18752,7 +18779,7 @@
         <v>1492014874</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>14</v>
       </c>
@@ -18810,7 +18837,7 @@
         <v>1492014885</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>15</v>
       </c>
@@ -18868,7 +18895,7 @@
         <v>1492014892</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>16</v>
       </c>
@@ -18926,7 +18953,7 @@
         <v>1492014912</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>17</v>
       </c>
@@ -18984,7 +19011,7 @@
         <v>1492014934</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>18</v>
       </c>
@@ -19042,7 +19069,7 @@
         <v>1492014948</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>19</v>
       </c>
@@ -19100,7 +19127,7 @@
         <v>1492014964</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>20</v>
       </c>
@@ -19158,7 +19185,7 @@
         <v>1492014978</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>21</v>
       </c>
@@ -19216,7 +19243,7 @@
         <v>1492014992</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>22</v>
       </c>
@@ -19274,7 +19301,7 @@
         <v>1492014998</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>23</v>
       </c>
@@ -19332,7 +19359,7 @@
         <v>1492015019</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>24</v>
       </c>
@@ -19390,7 +19417,7 @@
         <v>1492015038</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>25</v>
       </c>
@@ -19448,7 +19475,7 @@
         <v>1492015050</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>26</v>
       </c>
@@ -19506,7 +19533,7 @@
         <v>1492015061</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>27</v>
       </c>
@@ -19564,7 +19591,7 @@
         <v>1492015079</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>28</v>
       </c>
@@ -19622,7 +19649,7 @@
         <v>1492015098</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>29</v>
       </c>
@@ -19680,7 +19707,7 @@
         <v>1492015112</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>30</v>
       </c>
@@ -19738,7 +19765,7 @@
         <v>1492015130</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>31</v>
       </c>
@@ -19796,7 +19823,7 @@
         <v>1492015137</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>32</v>
       </c>
@@ -19854,7 +19881,7 @@
         <v>1492015158</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>33</v>
       </c>
@@ -19912,7 +19939,7 @@
         <v>1492015171</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>34</v>
       </c>
@@ -19970,7 +19997,7 @@
         <v>1492015177</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>35</v>
       </c>
@@ -20028,7 +20055,7 @@
         <v>1492015204</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>36</v>
       </c>
@@ -20086,7 +20113,7 @@
         <v>1492015204</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>37</v>
       </c>
@@ -20144,7 +20171,7 @@
         <v>1492015223</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>38</v>
       </c>
@@ -20202,7 +20229,7 @@
         <v>1492015243</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>39</v>
       </c>
@@ -20260,7 +20287,7 @@
         <v>1492015262</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>40</v>
       </c>
@@ -20318,7 +20345,7 @@
         <v>1492015277</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>41</v>
       </c>
@@ -20376,7 +20403,7 @@
         <v>1492015283</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>42</v>
       </c>
@@ -20434,7 +20461,7 @@
         <v>1492015304</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>43</v>
       </c>
@@ -20492,7 +20519,7 @@
         <v>1492015318</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>44</v>
       </c>
@@ -20550,7 +20577,7 @@
         <v>1492015336</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>45</v>
       </c>
@@ -20608,7 +20635,7 @@
         <v>1492015344</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>46</v>
       </c>
@@ -20666,7 +20693,7 @@
         <v>1492015363</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>47</v>
       </c>
@@ -20724,7 +20751,7 @@
         <v>1492015384</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>48</v>
       </c>
@@ -20782,7 +20809,7 @@
         <v>1492015384</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>49</v>
       </c>
@@ -20840,7 +20867,7 @@
         <v>1492015406</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>50</v>
       </c>
@@ -20898,7 +20925,7 @@
         <v>1492015423</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>51</v>
       </c>
@@ -20956,7 +20983,7 @@
         <v>1492015436</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>52</v>
       </c>
@@ -21014,7 +21041,7 @@
         <v>1492015449</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>53</v>
       </c>
@@ -21072,7 +21099,7 @@
         <v>1492015468</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>54</v>
       </c>
@@ -21130,7 +21157,7 @@
         <v>1492015488</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>55</v>
       </c>
@@ -21188,7 +21215,7 @@
         <v>1492015500</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>56</v>
       </c>
@@ -21246,7 +21273,7 @@
         <v>1492015508</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>57</v>
       </c>
@@ -21304,7 +21331,7 @@
         <v>1492015527</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>58</v>
       </c>
@@ -21362,7 +21389,7 @@
         <v>1492015548</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>59</v>
       </c>
@@ -21420,7 +21447,7 @@
         <v>1492015562</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>60</v>
       </c>
@@ -21478,7 +21505,7 @@
         <v>1492015567</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>61</v>
       </c>
@@ -21536,7 +21563,7 @@
         <v>1492015587</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>62</v>
       </c>
@@ -21594,7 +21621,7 @@
         <v>1492015608</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>63</v>
       </c>
@@ -21652,7 +21679,7 @@
         <v>1492015623</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>64</v>
       </c>
@@ -21710,7 +21737,7 @@
         <v>1492015628</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>65</v>
       </c>
@@ -21774,7 +21801,7 @@
         <v>1492015649</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>66</v>
       </c>
@@ -21838,7 +21865,7 @@
         <v>1492015669</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>67</v>
       </c>
@@ -21902,7 +21929,7 @@
         <v>1492015682</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>68</v>
       </c>
@@ -21966,7 +21993,7 @@
         <v>1492015696</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>69</v>
       </c>
@@ -22030,7 +22057,7 @@
         <v>1492015711</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>70</v>
       </c>
@@ -22094,7 +22121,7 @@
         <v>1492015729</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>71</v>
       </c>
@@ -22158,7 +22185,7 @@
         <v>1492015745</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>72</v>
       </c>
@@ -22222,7 +22249,7 @@
         <v>1492015753</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>73</v>
       </c>
@@ -22286,7 +22313,7 @@
         <v>1492015773</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>74</v>
       </c>
@@ -22350,7 +22377,7 @@
         <v>1492015785</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>75</v>
       </c>
@@ -22414,7 +22441,7 @@
         <v>1492015795</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>76</v>
       </c>
@@ -22478,7 +22505,7 @@
         <v>1492015813</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>77</v>
       </c>
@@ -22542,7 +22569,7 @@
         <v>1492015825</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>78</v>
       </c>
@@ -22606,7 +22633,7 @@
         <v>1492015836</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>79</v>
       </c>
@@ -22670,7 +22697,7 @@
         <v>1492015856</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>80</v>
       </c>
@@ -22734,7 +22761,7 @@
         <v>1492015873</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>81</v>
       </c>
@@ -22798,7 +22825,7 @@
         <v>1492015893</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>82</v>
       </c>
@@ -22862,7 +22889,7 @@
         <v>1492015908</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>83</v>
       </c>
@@ -22926,7 +22953,7 @@
         <v>1492015913</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>84</v>
       </c>
@@ -22990,7 +23017,7 @@
         <v>1492015928</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>85</v>
       </c>
@@ -23054,7 +23081,7 @@
         <v>1492015946</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>86</v>
       </c>
@@ -23118,7 +23145,7 @@
         <v>1492015964</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>87</v>
       </c>
@@ -23182,7 +23209,7 @@
         <v>1492015979</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>88</v>
       </c>
@@ -23246,7 +23273,7 @@
         <v>1492016002</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>89</v>
       </c>
@@ -23310,7 +23337,7 @@
         <v>1492016014</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>90</v>
       </c>
@@ -23374,7 +23401,7 @@
         <v>1492016020</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>91</v>
       </c>
@@ -23438,7 +23465,7 @@
         <v>1492016043</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>92</v>
       </c>
@@ -23502,7 +23529,7 @@
         <v>1492016058</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>93</v>
       </c>
@@ -23566,7 +23593,7 @@
         <v>1492016072</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>94</v>
       </c>
@@ -23630,7 +23657,7 @@
         <v>1492016079</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>95</v>
       </c>
@@ -23694,7 +23721,7 @@
         <v>1492016101</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>96</v>
       </c>
@@ -23758,7 +23785,7 @@
         <v>1492016118</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>97</v>
       </c>
@@ -23822,7 +23849,7 @@
         <v>1492016132</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>98</v>
       </c>
@@ -23886,7 +23913,7 @@
         <v>1492016137</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>99</v>
       </c>
@@ -23950,7 +23977,7 @@
         <v>1492016159</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>100</v>
       </c>
@@ -24014,7 +24041,7 @@
         <v>1492016170</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>101</v>
       </c>
@@ -24078,7 +24105,7 @@
         <v>1492016188</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>102</v>
       </c>
@@ -24142,7 +24169,7 @@
         <v>1492016205</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>103</v>
       </c>
@@ -24206,7 +24233,7 @@
         <v>1492016224</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>104</v>
       </c>
@@ -24270,7 +24297,7 @@
         <v>1492016238</v>
       </c>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>105</v>
       </c>
@@ -24334,7 +24361,7 @@
         <v>1492016244</v>
       </c>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>106</v>
       </c>
@@ -24398,7 +24425,7 @@
         <v>1492016263</v>
       </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>107</v>
       </c>
@@ -24462,7 +24489,7 @@
         <v>1492016277</v>
       </c>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>108</v>
       </c>
@@ -24526,7 +24553,7 @@
         <v>1492016297</v>
       </c>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>109</v>
       </c>
@@ -24590,7 +24617,7 @@
         <v>1492016303</v>
       </c>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>110</v>
       </c>
@@ -24654,7 +24681,7 @@
         <v>1492016323</v>
       </c>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>111</v>
       </c>
@@ -24718,7 +24745,7 @@
         <v>1492016342</v>
       </c>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>112</v>
       </c>
@@ -24782,7 +24809,7 @@
         <v>1492016356</v>
       </c>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>113</v>
       </c>
@@ -24855,33 +24882,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA79"/>
   <sheetViews>
-    <sheetView topLeftCell="K19" workbookViewId="0">
-      <selection activeCell="X40" sqref="X40"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="E79" sqref="E79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" customWidth="1"/>
-    <col min="6" max="6" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="18" max="27" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -24928,7 +24955,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>11</v>
       </c>
@@ -24986,7 +25013,7 @@
         <v>1492016934</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>12</v>
       </c>
@@ -25044,7 +25071,7 @@
         <v>1492016948</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>13</v>
       </c>
@@ -25102,7 +25129,7 @@
         <v>1492016954</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>14</v>
       </c>
@@ -25160,7 +25187,7 @@
         <v>1492016974</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>15</v>
       </c>
@@ -25218,7 +25245,7 @@
         <v>1492016994</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>16</v>
       </c>
@@ -25276,7 +25303,7 @@
         <v>1492017006</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>17</v>
       </c>
@@ -25334,7 +25361,7 @@
         <v>1492017026</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>18</v>
       </c>
@@ -25392,7 +25419,7 @@
         <v>1492017033</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>19</v>
       </c>
@@ -25450,7 +25477,7 @@
         <v>1492017053</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>20</v>
       </c>
@@ -25508,7 +25535,7 @@
         <v>1492017066</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>21</v>
       </c>
@@ -25566,7 +25593,7 @@
         <v>1492017080</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>22</v>
       </c>
@@ -25624,7 +25651,7 @@
         <v>1492017093</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>23</v>
       </c>
@@ -25682,7 +25709,7 @@
         <v>1492017103</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>24</v>
       </c>
@@ -25746,7 +25773,7 @@
         <v>1492017123</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>25</v>
       </c>
@@ -25810,7 +25837,7 @@
         <v>1492017143</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>26</v>
       </c>
@@ -25874,7 +25901,7 @@
         <v>1492017167</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>27</v>
       </c>
@@ -25938,7 +25965,7 @@
         <v>1492017167</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>28</v>
       </c>
@@ -26008,7 +26035,7 @@
         <v>1492017182</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>29</v>
       </c>
@@ -26078,7 +26105,7 @@
         <v>1492017204</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>30</v>
       </c>
@@ -26148,7 +26175,7 @@
         <v>1492017204</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>31</v>
       </c>
@@ -26218,7 +26245,7 @@
         <v>1492017224</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>32</v>
       </c>
@@ -26288,7 +26315,7 @@
         <v>1492017244</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>33</v>
       </c>
@@ -26358,7 +26385,7 @@
         <v>1492017263</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>34</v>
       </c>
@@ -26428,7 +26455,7 @@
         <v>1492017280</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>35</v>
       </c>
@@ -26498,7 +26525,7 @@
         <v>1492017284</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>36</v>
       </c>
@@ -26568,7 +26595,7 @@
         <v>1492017305</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>37</v>
       </c>
@@ -26638,7 +26665,7 @@
         <v>1492017324</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>38</v>
       </c>
@@ -26708,7 +26735,7 @@
         <v>1492017341</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>39</v>
       </c>
@@ -26778,7 +26805,7 @@
         <v>1492017347</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>40</v>
       </c>
@@ -26848,7 +26875,7 @@
         <v>1492017364</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>41</v>
       </c>
@@ -26918,7 +26945,7 @@
         <v>1492017387</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>42</v>
       </c>
@@ -26988,7 +27015,7 @@
         <v>1492017395</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>43</v>
       </c>
@@ -27058,7 +27085,7 @@
         <v>1492017411</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>44</v>
       </c>
@@ -27128,7 +27155,7 @@
         <v>1492017429</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>45</v>
       </c>
@@ -27198,7 +27225,7 @@
         <v>1492017447</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>46</v>
       </c>
@@ -27268,7 +27295,7 @@
         <v>1492017449</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>47</v>
       </c>
@@ -27338,7 +27365,7 @@
         <v>1492017467</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>48</v>
       </c>
@@ -27408,7 +27435,7 @@
         <v>1492017491</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>49</v>
       </c>
@@ -27484,7 +27511,7 @@
         <v>1492017500</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>50</v>
       </c>
@@ -27560,7 +27587,7 @@
         <v>1492017508</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>51</v>
       </c>
@@ -27642,7 +27669,7 @@
         <v>1492017537</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>52</v>
       </c>
@@ -27724,7 +27751,7 @@
         <v>1492017545</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>53</v>
       </c>
@@ -27806,7 +27833,7 @@
         <v>1492017556</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>54</v>
       </c>
@@ -27888,7 +27915,7 @@
         <v>1492017575</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>55</v>
       </c>
@@ -27970,7 +27997,7 @@
         <v>1492017602</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>56</v>
       </c>
@@ -28052,7 +28079,7 @@
         <v>1492017602</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>57</v>
       </c>
@@ -28134,7 +28161,7 @@
         <v>1492017615</v>
       </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>58</v>
       </c>
@@ -28216,7 +28243,7 @@
         <v>1492017646</v>
       </c>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>59</v>
       </c>
@@ -28298,7 +28325,7 @@
         <v>1492017658</v>
       </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>60</v>
       </c>
@@ -28380,7 +28407,7 @@
         <v>1492017658</v>
       </c>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>61</v>
       </c>
@@ -28462,7 +28489,7 @@
         <v>1492017680</v>
       </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>62</v>
       </c>
@@ -28544,7 +28571,7 @@
         <v>1492017680</v>
       </c>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>63</v>
       </c>
@@ -28626,7 +28653,7 @@
         <v>1492017718</v>
       </c>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>64</v>
       </c>
@@ -28708,7 +28735,7 @@
         <v>1492017725</v>
       </c>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>65</v>
       </c>
@@ -28790,7 +28817,7 @@
         <v>1492017749</v>
       </c>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>66</v>
       </c>
@@ -28872,7 +28899,7 @@
         <v>1492017762</v>
       </c>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>67</v>
       </c>
@@ -28954,7 +28981,7 @@
         <v>1492017764</v>
       </c>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>68</v>
       </c>
@@ -29036,7 +29063,7 @@
         <v>1492017791</v>
       </c>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>69</v>
       </c>
@@ -29118,7 +29145,7 @@
         <v>1492017804</v>
       </c>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>70</v>
       </c>
@@ -29200,7 +29227,7 @@
         <v>1492017804</v>
       </c>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>71</v>
       </c>
@@ -29282,7 +29309,7 @@
         <v>1492017836</v>
       </c>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>72</v>
       </c>
@@ -29364,7 +29391,7 @@
         <v>1492017857</v>
       </c>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>73</v>
       </c>
@@ -29446,7 +29473,7 @@
         <v>1492017864</v>
       </c>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>74</v>
       </c>
@@ -29528,7 +29555,7 @@
         <v>1492017875</v>
       </c>
     </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>75</v>
       </c>
@@ -29610,7 +29637,7 @@
         <v>1492017883</v>
       </c>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>76</v>
       </c>
@@ -29692,7 +29719,7 @@
         <v>1492017906</v>
       </c>
     </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>77</v>
       </c>
@@ -29774,7 +29801,7 @@
         <v>1492017928</v>
       </c>
     </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>78</v>
       </c>
@@ -29856,7 +29883,7 @@
         <v>1492017928</v>
       </c>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>79</v>
       </c>
@@ -29938,7 +29965,7 @@
         <v>1492017946</v>
       </c>
     </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>80</v>
       </c>
@@ -30020,7 +30047,7 @@
         <v>1492017966</v>
       </c>
     </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>81</v>
       </c>
@@ -30102,7 +30129,7 @@
         <v>1492017966</v>
       </c>
     </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>82</v>
       </c>
@@ -30184,7 +30211,7 @@
         <v>1492017991</v>
       </c>
     </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>83</v>
       </c>
@@ -30266,7 +30293,7 @@
         <v>1492018012</v>
       </c>
     </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>84</v>
       </c>
@@ -30348,7 +30375,7 @@
         <v>1492018030</v>
       </c>
     </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>85</v>
       </c>
@@ -30430,7 +30457,7 @@
         <v>1492018048</v>
       </c>
     </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>86</v>
       </c>
@@ -30512,7 +30539,7 @@
         <v>1492018049</v>
       </c>
     </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>87</v>
       </c>
@@ -30594,7 +30621,7 @@
         <v>1492018072</v>
       </c>
     </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>88</v>
       </c>
@@ -30685,33 +30712,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y83"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="E83" sqref="E83"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="F90" sqref="F90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" customWidth="1"/>
-    <col min="6" max="6" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="18" max="25" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -30758,7 +30785,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>6</v>
       </c>
@@ -30816,7 +30843,7 @@
         <v>1492021898</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>7</v>
       </c>
@@ -30874,7 +30901,7 @@
         <v>1492021920</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>8</v>
       </c>
@@ -30932,7 +30959,7 @@
         <v>1492021938</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>9</v>
       </c>
@@ -30990,7 +31017,7 @@
         <v>1492021938</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>10</v>
       </c>
@@ -31048,7 +31075,7 @@
         <v>1492021969</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>11</v>
       </c>
@@ -31106,7 +31133,7 @@
         <v>1492021980</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>12</v>
       </c>
@@ -31164,7 +31191,7 @@
         <v>1492021994</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>13</v>
       </c>
@@ -31222,7 +31249,7 @@
         <v>1492022011</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>14</v>
       </c>
@@ -31280,7 +31307,7 @@
         <v>1492022026</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>15</v>
       </c>
@@ -31338,7 +31365,7 @@
         <v>1492022043</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>16</v>
       </c>
@@ -31396,7 +31423,7 @@
         <v>1492022056</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>17</v>
       </c>
@@ -31454,7 +31481,7 @@
         <v>1492022064</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>18</v>
       </c>
@@ -31512,7 +31539,7 @@
         <v>1492022083</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>19</v>
       </c>
@@ -31576,7 +31603,7 @@
         <v>1492022099</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>20</v>
       </c>
@@ -31640,7 +31667,7 @@
         <v>1492022108</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>21</v>
       </c>
@@ -31704,7 +31731,7 @@
         <v>1492022129</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>22</v>
       </c>
@@ -31768,7 +31795,7 @@
         <v>1492022149</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>23</v>
       </c>
@@ -31832,7 +31859,7 @@
         <v>1492022163</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>24</v>
       </c>
@@ -31896,7 +31923,7 @@
         <v>1492022170</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>25</v>
       </c>
@@ -31960,7 +31987,7 @@
         <v>1492022189</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>26</v>
       </c>
@@ -32024,7 +32051,7 @@
         <v>1492022209</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>27</v>
       </c>
@@ -32088,7 +32115,7 @@
         <v>1492022209</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>28</v>
       </c>
@@ -32152,7 +32179,7 @@
         <v>1492022228</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>29</v>
       </c>
@@ -32216,7 +32243,7 @@
         <v>1492022248</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>30</v>
       </c>
@@ -32280,7 +32307,7 @@
         <v>1492022267</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>31</v>
       </c>
@@ -32344,7 +32371,7 @@
         <v>1492022271</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>32</v>
       </c>
@@ -32408,7 +32435,7 @@
         <v>1492022293</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>33</v>
       </c>
@@ -32478,7 +32505,7 @@
         <v>1492022314</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>34</v>
       </c>
@@ -32548,7 +32575,7 @@
         <v>1492022314</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>35</v>
       </c>
@@ -32618,7 +32645,7 @@
         <v>1492022335</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>36</v>
       </c>
@@ -32688,7 +32715,7 @@
         <v>1492022357</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>37</v>
       </c>
@@ -32758,7 +32785,7 @@
         <v>1492022377</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>38</v>
       </c>
@@ -32828,7 +32855,7 @@
         <v>1492022389</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>39</v>
       </c>
@@ -32898,7 +32925,7 @@
         <v>1492022393</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>40</v>
       </c>
@@ -32968,7 +32995,7 @@
         <v>1492022418</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>41</v>
       </c>
@@ -33038,7 +33065,7 @@
         <v>1492022436</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>42</v>
       </c>
@@ -33108,7 +33135,7 @@
         <v>1492022438</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>43</v>
       </c>
@@ -33178,7 +33205,7 @@
         <v>1492022453</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>44</v>
       </c>
@@ -33248,7 +33275,7 @@
         <v>1492022479</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>45</v>
       </c>
@@ -33318,7 +33345,7 @@
         <v>1492022479</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>46</v>
       </c>
@@ -33388,7 +33415,7 @@
         <v>1492022499</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>47</v>
       </c>
@@ -33458,7 +33485,7 @@
         <v>1492022523</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>48</v>
       </c>
@@ -33534,7 +33561,7 @@
         <v>1492022538</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>49</v>
       </c>
@@ -33610,7 +33637,7 @@
         <v>1492022552</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>50</v>
       </c>
@@ -33686,7 +33713,7 @@
         <v>1492022568</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>51</v>
       </c>
@@ -33762,7 +33789,7 @@
         <v>1492022586</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>52</v>
       </c>
@@ -33838,7 +33865,7 @@
         <v>1492022593</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>53</v>
       </c>
@@ -33914,7 +33941,7 @@
         <v>1492022610</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>54</v>
       </c>
@@ -33990,7 +34017,7 @@
         <v>1492022630</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>55</v>
       </c>
@@ -34066,7 +34093,7 @@
         <v>1492022631</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>56</v>
       </c>
@@ -34142,7 +34169,7 @@
         <v>1492022650</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>57</v>
       </c>
@@ -34218,7 +34245,7 @@
         <v>1492022671</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>58</v>
       </c>
@@ -34294,7 +34321,7 @@
         <v>1492022688</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>59</v>
       </c>
@@ -34370,7 +34397,7 @@
         <v>1492022688</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>60</v>
       </c>
@@ -34446,7 +34473,7 @@
         <v>1492022708</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>61</v>
       </c>
@@ -34522,7 +34549,7 @@
         <v>1492022728</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>62</v>
       </c>
@@ -34598,7 +34625,7 @@
         <v>1492022728</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>63</v>
       </c>
@@ -34674,7 +34701,7 @@
         <v>1492022751</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>64</v>
       </c>
@@ -34750,7 +34777,7 @@
         <v>1492022773</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>65</v>
       </c>
@@ -34826,7 +34853,7 @@
         <v>1492022801</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>66</v>
       </c>
@@ -34902,7 +34929,7 @@
         <v>1492022808</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>67</v>
       </c>
@@ -34978,7 +35005,7 @@
         <v>1492022808</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>68</v>
       </c>
@@ -35054,7 +35081,7 @@
         <v>1492022832</v>
       </c>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>69</v>
       </c>
@@ -35130,7 +35157,7 @@
         <v>1492022848</v>
       </c>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>70</v>
       </c>
@@ -35206,7 +35233,7 @@
         <v>1492022856</v>
       </c>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>71</v>
       </c>
@@ -35282,7 +35309,7 @@
         <v>1492022878</v>
       </c>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>72</v>
       </c>
@@ -35358,7 +35385,7 @@
         <v>1492022878</v>
       </c>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>73</v>
       </c>
@@ -35434,7 +35461,7 @@
         <v>1492022906</v>
       </c>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>74</v>
       </c>
@@ -35510,7 +35537,7 @@
         <v>1492022929</v>
       </c>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>75</v>
       </c>
@@ -35586,7 +35613,7 @@
         <v>1492022935</v>
       </c>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>76</v>
       </c>
@@ -35662,7 +35689,7 @@
         <v>1492022961</v>
       </c>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>77</v>
       </c>
@@ -35738,7 +35765,7 @@
         <v>1492022974</v>
       </c>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>78</v>
       </c>
@@ -35814,7 +35841,7 @@
         <v>1492022986</v>
       </c>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>79</v>
       </c>
@@ -35890,7 +35917,7 @@
         <v>1492022986</v>
       </c>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>80</v>
       </c>
@@ -35966,7 +35993,7 @@
         <v>1492023008</v>
       </c>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>81</v>
       </c>
@@ -36042,7 +36069,7 @@
         <v>1492023026</v>
       </c>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>82</v>
       </c>
@@ -36118,7 +36145,7 @@
         <v>1492023047</v>
       </c>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>83</v>
       </c>
@@ -36194,7 +36221,7 @@
         <v>1492023062</v>
       </c>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>84</v>
       </c>
@@ -36270,7 +36297,7 @@
         <v>1492023062</v>
       </c>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>85</v>
       </c>
@@ -36346,7 +36373,7 @@
         <v>1492023090</v>
       </c>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>86</v>
       </c>
@@ -36422,7 +36449,7 @@
         <v>1492023182</v>
       </c>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>87</v>
       </c>
@@ -36511,29 +36538,29 @@
       <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" customWidth="1"/>
-    <col min="6" max="6" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="18" max="37" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -36580,7 +36607,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>15</v>
       </c>
@@ -36638,7 +36665,7 @@
         <v>1492025306</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>16</v>
       </c>
@@ -36696,7 +36723,7 @@
         <v>1492025313</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>17</v>
       </c>
@@ -36754,7 +36781,7 @@
         <v>1492025334</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>18</v>
       </c>
@@ -36812,7 +36839,7 @@
         <v>1492025353</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>19</v>
       </c>
@@ -36870,7 +36897,7 @@
         <v>1492025353</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>20</v>
       </c>
@@ -36928,7 +36955,7 @@
         <v>1492025353</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>21</v>
       </c>
@@ -36986,7 +37013,7 @@
         <v>1492025353</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>22</v>
       </c>
@@ -37044,7 +37071,7 @@
         <v>1492025409</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>23</v>
       </c>
@@ -37102,7 +37129,7 @@
         <v>1492025427</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>24</v>
       </c>
@@ -37160,7 +37187,7 @@
         <v>1492025437</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>25</v>
       </c>
@@ -37218,7 +37245,7 @@
         <v>1492025460</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>26</v>
       </c>
@@ -37282,7 +37309,7 @@
         <v>1492025460</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>27</v>
       </c>
@@ -37346,7 +37373,7 @@
         <v>1492025490</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>28</v>
       </c>
@@ -37410,7 +37437,7 @@
         <v>1492025508</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>29</v>
       </c>
@@ -37474,7 +37501,7 @@
         <v>1492025508</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>30</v>
       </c>
@@ -37538,7 +37565,7 @@
         <v>1492025508</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>31</v>
       </c>
@@ -37602,7 +37629,7 @@
         <v>1492025563</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>32</v>
       </c>
@@ -37672,7 +37699,7 @@
         <v>1492025566</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>33</v>
       </c>
@@ -37742,7 +37769,7 @@
         <v>1492025566</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>34</v>
       </c>
@@ -37812,7 +37839,7 @@
         <v>1492025566</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>35</v>
       </c>
@@ -37882,7 +37909,7 @@
         <v>1492025608</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>36</v>
       </c>
@@ -37952,7 +37979,7 @@
         <v>1492025626</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>37</v>
       </c>
@@ -38028,7 +38055,7 @@
         <v>1492025643</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>38</v>
       </c>
@@ -38104,7 +38131,7 @@
         <v>1492025646</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>39</v>
       </c>
@@ -38180,7 +38207,7 @@
         <v>1492025669</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>40</v>
       </c>
@@ -38256,7 +38283,7 @@
         <v>1492025688</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>41</v>
       </c>
@@ -38338,7 +38365,7 @@
         <v>1492025688</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>42</v>
       </c>
@@ -38420,7 +38447,7 @@
         <v>1492025708</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>43</v>
       </c>
@@ -38502,7 +38529,7 @@
         <v>1492025730</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>44</v>
       </c>
@@ -38584,7 +38611,7 @@
         <v>1492025754</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>45</v>
       </c>
@@ -38666,7 +38693,7 @@
         <v>1492025759</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>46</v>
       </c>
@@ -38748,7 +38775,7 @@
         <v>1492025795</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>47</v>
       </c>
@@ -38830,7 +38857,7 @@
         <v>1492025822</v>
       </c>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>48</v>
       </c>
@@ -38912,7 +38939,7 @@
         <v>1492025837</v>
       </c>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>49</v>
       </c>
@@ -38994,7 +39021,7 @@
         <v>1492025852</v>
       </c>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>50</v>
       </c>
@@ -39076,7 +39103,7 @@
         <v>1492025852</v>
       </c>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>51</v>
       </c>
@@ -39158,7 +39185,7 @@
         <v>1492025875</v>
       </c>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>52</v>
       </c>
@@ -39246,7 +39273,7 @@
         <v>1492025875</v>
       </c>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>53</v>
       </c>
@@ -39334,7 +39361,7 @@
         <v>1492025906</v>
       </c>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>54</v>
       </c>
@@ -39422,7 +39449,7 @@
         <v>1492025927</v>
       </c>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>55</v>
       </c>
@@ -39510,7 +39537,7 @@
         <v>1492025947</v>
       </c>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>56</v>
       </c>
@@ -39598,7 +39625,7 @@
         <v>1492025969</v>
       </c>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>57</v>
       </c>
@@ -39686,7 +39713,7 @@
         <v>1492025986</v>
       </c>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>58</v>
       </c>
@@ -39774,7 +39801,7 @@
         <v>1492025986</v>
       </c>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>59</v>
       </c>
@@ -39868,7 +39895,7 @@
         <v>1492026003</v>
       </c>
     </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>60</v>
       </c>
@@ -39962,7 +39989,7 @@
         <v>1492026021</v>
       </c>
     </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>61</v>
       </c>
@@ -40056,7 +40083,7 @@
         <v>1492026026</v>
       </c>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>62</v>
       </c>
@@ -40150,7 +40177,7 @@
         <v>1492026040</v>
       </c>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>63</v>
       </c>
@@ -40244,7 +40271,7 @@
         <v>1492026066</v>
       </c>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>64</v>
       </c>
@@ -40338,7 +40365,7 @@
         <v>1492026178</v>
       </c>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>65</v>
       </c>
@@ -40438,7 +40465,7 @@
         <v>1492026205</v>
       </c>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>66</v>
       </c>
@@ -40538,7 +40565,7 @@
         <v>1492026239</v>
       </c>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>67</v>
       </c>
@@ -40638,7 +40665,7 @@
         <v>1492026239</v>
       </c>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>68</v>
       </c>
@@ -40738,7 +40765,7 @@
         <v>1492026254</v>
       </c>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>69</v>
       </c>
@@ -40838,7 +40865,7 @@
         <v>1492026270</v>
       </c>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>70</v>
       </c>
@@ -40938,7 +40965,7 @@
         <v>1492026270</v>
       </c>
     </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>71</v>
       </c>
@@ -41038,7 +41065,7 @@
         <v>1492026299</v>
       </c>
     </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>72</v>
       </c>
@@ -41138,7 +41165,7 @@
         <v>1492026315</v>
       </c>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>73</v>
       </c>
@@ -41238,7 +41265,7 @@
         <v>1492026315</v>
       </c>
     </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>74</v>
       </c>
@@ -41344,7 +41371,7 @@
         <v>1492026350</v>
       </c>
     </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>75</v>
       </c>
@@ -41450,7 +41477,7 @@
         <v>1492026381</v>
       </c>
     </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>76</v>
       </c>
@@ -41556,7 +41583,7 @@
         <v>1492026406</v>
       </c>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>77</v>
       </c>
@@ -41662,7 +41689,7 @@
         <v>1492026426</v>
       </c>
     </row>
-    <row r="65" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>78</v>
       </c>
@@ -41774,7 +41801,7 @@
         <v>1492026473</v>
       </c>
     </row>
-    <row r="66" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>79</v>
       </c>
@@ -41886,7 +41913,7 @@
         <v>1492026504</v>
       </c>
     </row>
-    <row r="67" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>80</v>
       </c>
@@ -42007,33 +42034,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="X4" sqref="X4"/>
+    <sheetView topLeftCell="R4" workbookViewId="0">
+      <selection activeCell="E147" sqref="E147"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" customWidth="1"/>
-    <col min="6" max="6" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="18" max="23" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -42083,7 +42110,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>15</v>
       </c>
@@ -42141,7 +42168,7 @@
         <v>1492032693</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>16</v>
       </c>
@@ -42199,7 +42226,7 @@
         <v>1492032713</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>17</v>
       </c>
@@ -42257,7 +42284,7 @@
         <v>1492032727</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>18</v>
       </c>
@@ -42315,7 +42342,7 @@
         <v>1492032734</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>19</v>
       </c>
@@ -42373,7 +42400,7 @@
         <v>1492032753</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>20</v>
       </c>
@@ -42431,7 +42458,7 @@
         <v>1492032773</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>21</v>
       </c>
@@ -42489,7 +42516,7 @@
         <v>1492032788</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>22</v>
       </c>
@@ -42547,7 +42574,7 @@
         <v>1492032793</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>23</v>
       </c>
@@ -42605,7 +42632,7 @@
         <v>1492032813</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>24</v>
       </c>
@@ -42663,7 +42690,7 @@
         <v>1492032828</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>25</v>
       </c>
@@ -42721,7 +42748,7 @@
         <v>1492032838</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>26</v>
       </c>
@@ -42779,7 +42806,7 @@
         <v>1492032858</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>27</v>
       </c>
@@ -42837,7 +42864,7 @@
         <v>1492032878</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>28</v>
       </c>
@@ -42895,7 +42922,7 @@
         <v>1492032893</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>29</v>
       </c>
@@ -42953,7 +42980,7 @@
         <v>1492032898</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>30</v>
       </c>
@@ -43011,7 +43038,7 @@
         <v>1492032918</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>31</v>
       </c>
@@ -43069,7 +43096,7 @@
         <v>1492032937</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>32</v>
       </c>
@@ -43127,7 +43154,7 @@
         <v>1492032952</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>33</v>
       </c>
@@ -43185,7 +43212,7 @@
         <v>1492032957</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>34</v>
       </c>
@@ -43243,7 +43270,7 @@
         <v>1492032977</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>35</v>
       </c>
@@ -43301,7 +43328,7 @@
         <v>1492032998</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>36</v>
       </c>
@@ -43359,7 +43386,7 @@
         <v>1492033013</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>37</v>
       </c>
@@ -43417,7 +43444,7 @@
         <v>1492033017</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>38</v>
       </c>
@@ -43475,7 +43502,7 @@
         <v>1492033045</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>39</v>
       </c>
@@ -43533,7 +43560,7 @@
         <v>1492033060</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>40</v>
       </c>
@@ -43591,7 +43618,7 @@
         <v>1492033064</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>41</v>
       </c>
@@ -43649,7 +43676,7 @@
         <v>1492033083</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>42</v>
       </c>
@@ -43707,7 +43734,7 @@
         <v>1492033104</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>43</v>
       </c>
@@ -43765,7 +43792,7 @@
         <v>1492033119</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>44</v>
       </c>
@@ -43823,7 +43850,7 @@
         <v>1492033123</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>45</v>
       </c>
@@ -43881,7 +43908,7 @@
         <v>1492033142</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>46</v>
       </c>
@@ -43939,7 +43966,7 @@
         <v>1492033162</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>47</v>
       </c>
@@ -43997,7 +44024,7 @@
         <v>1492033177</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>48</v>
       </c>
@@ -44055,7 +44082,7 @@
         <v>1492033182</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>49</v>
       </c>
@@ -44113,7 +44140,7 @@
         <v>1492033202</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>50</v>
       </c>
@@ -44171,7 +44198,7 @@
         <v>1492033216</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>51</v>
       </c>
@@ -44235,7 +44262,7 @@
         <v>1492033231</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>52</v>
       </c>
@@ -44299,7 +44326,7 @@
         <v>1492033250</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>53</v>
       </c>
@@ -44363,7 +44390,7 @@
         <v>1492033268</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>54</v>
       </c>
@@ -44427,7 +44454,7 @@
         <v>1492033283</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>55</v>
       </c>
@@ -44491,7 +44518,7 @@
         <v>1492033288</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>56</v>
       </c>
@@ -44555,7 +44582,7 @@
         <v>1492033308</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>57</v>
       </c>
@@ -44619,7 +44646,7 @@
         <v>1492033328</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>58</v>
       </c>
@@ -44683,7 +44710,7 @@
         <v>1492033343</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>59</v>
       </c>
@@ -44747,7 +44774,7 @@
         <v>1492033353</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>60</v>
       </c>
@@ -44811,7 +44838,7 @@
         <v>1492033373</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>61</v>
       </c>
@@ -44875,7 +44902,7 @@
         <v>1492033388</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>62</v>
       </c>
@@ -44939,7 +44966,7 @@
         <v>1492033393</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>63</v>
       </c>
@@ -45003,7 +45030,7 @@
         <v>1492033413</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>64</v>
       </c>
@@ -45067,7 +45094,7 @@
         <v>1492033434</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>65</v>
       </c>
@@ -45131,7 +45158,7 @@
         <v>1492033449</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>66</v>
       </c>
@@ -45195,7 +45222,7 @@
         <v>1492033453</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>67</v>
       </c>
@@ -45259,7 +45286,7 @@
         <v>1492033478</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>68</v>
       </c>
@@ -45323,7 +45350,7 @@
         <v>1492033486</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>69</v>
       </c>
@@ -45387,7 +45414,7 @@
         <v>1492033502</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>70</v>
       </c>
@@ -45451,7 +45478,7 @@
         <v>1492033518</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>71</v>
       </c>
@@ -45515,7 +45542,7 @@
         <v>1492033538</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>72</v>
       </c>
@@ -45579,7 +45606,7 @@
         <v>1492033554</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>73</v>
       </c>
@@ -45643,7 +45670,7 @@
         <v>1492033558</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>74</v>
       </c>
@@ -45707,7 +45734,7 @@
         <v>1492033577</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>75</v>
       </c>
@@ -45771,7 +45798,7 @@
         <v>1492033598</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>76</v>
       </c>
@@ -45835,7 +45862,7 @@
         <v>1492033613</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>77</v>
       </c>
@@ -45899,7 +45926,7 @@
         <v>1492033623</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>78</v>
       </c>
@@ -45963,7 +45990,7 @@
         <v>1492033643</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>79</v>
       </c>
@@ -46027,7 +46054,7 @@
         <v>1492033657</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>80</v>
       </c>
@@ -46091,7 +46118,7 @@
         <v>1492033663</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>81</v>
       </c>
@@ -46155,7 +46182,7 @@
         <v>1492033683</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>82</v>
       </c>
@@ -46219,7 +46246,7 @@
         <v>1492033703</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>83</v>
       </c>
@@ -46283,7 +46310,7 @@
         <v>1492033719</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>84</v>
       </c>
@@ -46347,7 +46374,7 @@
         <v>1492033724</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>85</v>
       </c>
@@ -46411,7 +46438,7 @@
         <v>1492033743</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>86</v>
       </c>
@@ -46475,7 +46502,7 @@
         <v>1492033760</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>87</v>
       </c>
@@ -46539,7 +46566,7 @@
         <v>1492033768</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>88</v>
       </c>
@@ -46603,7 +46630,7 @@
         <v>1492033788</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>89</v>
       </c>
@@ -46667,7 +46694,7 @@
         <v>1492033808</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>90</v>
       </c>
@@ -46731,7 +46758,7 @@
         <v>1492033823</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>91</v>
       </c>
@@ -46795,7 +46822,7 @@
         <v>1492033830</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>92</v>
       </c>
@@ -46859,7 +46886,7 @@
         <v>1492033848</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>93</v>
       </c>
@@ -46923,7 +46950,7 @@
         <v>1492033869</v>
       </c>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>94</v>
       </c>
@@ -46987,7 +47014,7 @@
         <v>1492033885</v>
       </c>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>95</v>
       </c>
@@ -47051,7 +47078,7 @@
         <v>1492033892</v>
       </c>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>96</v>
       </c>
@@ -47115,7 +47142,7 @@
         <v>1492033913</v>
       </c>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>97</v>
       </c>
@@ -47179,7 +47206,7 @@
         <v>1492033934</v>
       </c>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>98</v>
       </c>
@@ -47243,7 +47270,7 @@
         <v>1492033934</v>
       </c>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>99</v>
       </c>
@@ -47307,7 +47334,7 @@
         <v>1492033953</v>
       </c>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>100</v>
       </c>
@@ -47371,7 +47398,7 @@
         <v>1492033974</v>
       </c>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>101</v>
       </c>
@@ -47435,7 +47462,7 @@
         <v>1492033990</v>
       </c>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>102</v>
       </c>
@@ -47499,7 +47526,7 @@
         <v>1492033993</v>
       </c>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>103</v>
       </c>
@@ -47563,7 +47590,7 @@
         <v>1492034017</v>
       </c>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>104</v>
       </c>
@@ -47633,7 +47660,7 @@
         <v>1492034039</v>
       </c>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>105</v>
       </c>
@@ -47703,7 +47730,7 @@
         <v>1492034039</v>
       </c>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>106</v>
       </c>
@@ -47773,7 +47800,7 @@
         <v>1492034060</v>
       </c>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>107</v>
       </c>
@@ -47843,7 +47870,7 @@
         <v>1492034080</v>
       </c>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>108</v>
       </c>
@@ -47913,7 +47940,7 @@
         <v>1492034100</v>
       </c>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>109</v>
       </c>
@@ -47983,7 +48010,7 @@
         <v>1492034116</v>
       </c>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>110</v>
       </c>
@@ -48053,7 +48080,7 @@
         <v>1492034121</v>
       </c>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>111</v>
       </c>
@@ -48123,7 +48150,7 @@
         <v>1492034142</v>
       </c>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>112</v>
       </c>
@@ -48193,7 +48220,7 @@
         <v>1492034158</v>
       </c>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>113</v>
       </c>
@@ -48263,7 +48290,7 @@
         <v>1492034164</v>
       </c>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>114</v>
       </c>
@@ -48333,7 +48360,7 @@
         <v>1492034184</v>
       </c>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>115</v>
       </c>
@@ -48403,7 +48430,7 @@
         <v>1492034200</v>
       </c>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>116</v>
       </c>
@@ -48473,7 +48500,7 @@
         <v>1492034205</v>
       </c>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>117</v>
       </c>
@@ -48543,7 +48570,7 @@
         <v>1492034225</v>
       </c>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>118</v>
       </c>
@@ -48613,7 +48640,7 @@
         <v>1492034246</v>
       </c>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>119</v>
       </c>
@@ -48683,7 +48710,7 @@
         <v>1492034261</v>
       </c>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>120</v>
       </c>
@@ -48753,7 +48780,7 @@
         <v>1492034266</v>
       </c>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>121</v>
       </c>
@@ -48823,7 +48850,7 @@
         <v>1492034288</v>
       </c>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>122</v>
       </c>
@@ -48893,7 +48920,7 @@
         <v>1492034305</v>
       </c>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>123</v>
       </c>
@@ -48963,7 +48990,7 @@
         <v>1492034309</v>
       </c>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>124</v>
       </c>
@@ -49033,7 +49060,7 @@
         <v>1492034329</v>
       </c>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>125</v>
       </c>
@@ -49103,7 +49130,7 @@
         <v>1492034348</v>
       </c>
     </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>126</v>
       </c>
@@ -49173,7 +49200,7 @@
         <v>1492034371</v>
       </c>
     </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>127</v>
       </c>
@@ -49243,7 +49270,7 @@
         <v>1492034371</v>
       </c>
     </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>128</v>
       </c>
@@ -49313,7 +49340,7 @@
         <v>1492034391</v>
       </c>
     </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>129</v>
       </c>
@@ -49383,7 +49410,7 @@
         <v>1492034410</v>
       </c>
     </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>130</v>
       </c>
@@ -49453,7 +49480,7 @@
         <v>1492034425</v>
       </c>
     </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>131</v>
       </c>
@@ -49523,7 +49550,7 @@
         <v>1492034433</v>
       </c>
     </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>132</v>
       </c>
@@ -49593,7 +49620,7 @@
         <v>1492034453</v>
       </c>
     </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>133</v>
       </c>
@@ -49663,7 +49690,7 @@
         <v>1492034470</v>
       </c>
     </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>134</v>
       </c>
@@ -49733,7 +49760,7 @@
         <v>1492034474</v>
       </c>
     </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>135</v>
       </c>
@@ -49803,7 +49830,7 @@
         <v>1492034494</v>
       </c>
     </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>136</v>
       </c>
@@ -49873,7 +49900,7 @@
         <v>1492034515</v>
       </c>
     </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>137</v>
       </c>
@@ -49943,7 +49970,7 @@
         <v>1492034531</v>
       </c>
     </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>138</v>
       </c>
@@ -50013,7 +50040,7 @@
         <v>1492034535</v>
       </c>
     </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>139</v>
       </c>
@@ -50083,7 +50110,7 @@
         <v>1492034558</v>
       </c>
     </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>140</v>
       </c>
@@ -50153,7 +50180,7 @@
         <v>1492034574</v>
       </c>
     </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>141</v>
       </c>
@@ -50223,7 +50250,7 @@
         <v>1492034595</v>
       </c>
     </row>
-    <row r="129" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>142</v>
       </c>
@@ -50293,7 +50320,7 @@
         <v>1492034598</v>
       </c>
     </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>143</v>
       </c>
@@ -50363,7 +50390,7 @@
         <v>1492034618</v>
       </c>
     </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>144</v>
       </c>
@@ -50433,7 +50460,7 @@
         <v>1492034634</v>
       </c>
     </row>
-    <row r="132" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>145</v>
       </c>
@@ -50503,7 +50530,7 @@
         <v>1492034639</v>
       </c>
     </row>
-    <row r="133" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>146</v>
       </c>
@@ -50573,7 +50600,7 @@
         <v>1492034659</v>
       </c>
     </row>
-    <row r="134" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>147</v>
       </c>
@@ -50643,7 +50670,7 @@
         <v>1492034676</v>
       </c>
     </row>
-    <row r="135" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>148</v>
       </c>
@@ -50713,7 +50740,7 @@
         <v>1492034700</v>
       </c>
     </row>
-    <row r="136" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>149</v>
       </c>
@@ -50783,7 +50810,7 @@
         <v>1492034704</v>
       </c>
     </row>
-    <row r="137" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>150</v>
       </c>
@@ -50853,7 +50880,7 @@
         <v>1492034723</v>
       </c>
     </row>
-    <row r="138" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>151</v>
       </c>
@@ -50923,7 +50950,7 @@
         <v>1492034744</v>
       </c>
     </row>
-    <row r="139" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>152</v>
       </c>
@@ -50993,7 +51020,7 @@
         <v>1492034744</v>
       </c>
     </row>
-    <row r="140" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>153</v>
       </c>
@@ -51063,7 +51090,7 @@
         <v>1492034763</v>
       </c>
     </row>
-    <row r="141" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>154</v>
       </c>
@@ -51133,7 +51160,7 @@
         <v>1492034785</v>
       </c>
     </row>
-    <row r="142" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>155</v>
       </c>
@@ -51203,7 +51230,7 @@
         <v>1492034800</v>
       </c>
     </row>
-    <row r="143" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>156</v>
       </c>
@@ -51273,7 +51300,7 @@
         <v>1492034804</v>
       </c>
     </row>
-    <row r="144" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>157</v>
       </c>
@@ -51343,7 +51370,7 @@
         <v>1492034827</v>
       </c>
     </row>
-    <row r="145" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>158</v>
       </c>
@@ -51413,7 +51440,7 @@
         <v>1492034843</v>
       </c>
     </row>
-    <row r="146" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>159</v>
       </c>
@@ -51483,7 +51510,7 @@
         <v>1492034848</v>
       </c>
     </row>
-    <row r="147" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>160</v>
       </c>

--- a/planilhas.xlsx
+++ b/planilhas.xlsx
@@ -9,23 +9,24 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9090" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9090" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="asc1perH" sheetId="2" r:id="rId1"/>
     <sheet name="asc2perH" sheetId="4" r:id="rId2"/>
     <sheet name="asc4perH" sheetId="5" r:id="rId3"/>
     <sheet name="asc4perHCPU" sheetId="6" r:id="rId4"/>
-    <sheet name="asc8perHCPU" sheetId="7" r:id="rId5"/>
-    <sheet name="asc2VMperH" sheetId="8" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId5"/>
+    <sheet name="asc8perHCPU" sheetId="7" r:id="rId6"/>
+    <sheet name="asc2VMperH" sheetId="8" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="autoelastic_ascending1perH" localSheetId="0">asc1perH!$A$1:$R$243</definedName>
     <definedName name="autoelastic_ascending2perH" localSheetId="1">asc2perH!$A$1:$U$105</definedName>
     <definedName name="autoelastic_ascending2perH" localSheetId="2">asc4perH!$A$1:$AA$79</definedName>
     <definedName name="autoelastic_ascending4perH" localSheetId="3">asc4perHCPU!$A$1:$Y$83</definedName>
-    <definedName name="autoelastic_ascending8perH" localSheetId="4">asc8perHCPU!$A$1:$AK$67</definedName>
-    <definedName name="autoelastic_ascendingVM2perH" localSheetId="5">asc2VMperH!$A$1:$W$147</definedName>
+    <definedName name="autoelastic_ascending8perH" localSheetId="5">asc8perHCPU!$A$1:$AK$67</definedName>
+    <definedName name="autoelastic_ascendingVM2perH" localSheetId="6">asc2VMperH!$A$1:$W$147</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
 </workbook>
@@ -225,9 +226,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="h:mm:ss;@"/>
     <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="171" formatCode="0.000000000"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -712,7 +714,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -721,6 +723,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4068,6 +4073,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="571722544"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -18467,6 +18473,9 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <customProperties>
+    <customPr name="_pios_id" r:id="rId2"/>
+  </customProperties>
 </worksheet>
 </file>
 
@@ -24875,6 +24884,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <customProperties>
+    <customPr name="_pios_id" r:id="rId1"/>
+  </customProperties>
 </worksheet>
 </file>
 
@@ -30705,6 +30717,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <customProperties>
+    <customPr name="_pios_id" r:id="rId1"/>
+  </customProperties>
 </worksheet>
 </file>
 
@@ -30712,8 +30727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="F90" sqref="F90"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36527,15 +36542,112 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <customProperties>
+    <customPr name="_pios_id" r:id="rId2"/>
+  </customProperties>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E1:I14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="9.140625" style="2"/>
+    <col min="7" max="7" width="24" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="F1" s="2">
+        <f xml:space="preserve"> TIME(18,55,38)</f>
+        <v>0.78863425925925934</v>
+      </c>
+      <c r="G1" s="6">
+        <f>F1</f>
+        <v>0.78863425925925934</v>
+      </c>
+    </row>
+    <row r="2" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="F2" s="2">
+        <f xml:space="preserve"> TIME(12,56,27)</f>
+        <v>0.53920138888888891</v>
+      </c>
+      <c r="G2" s="6">
+        <f>F2</f>
+        <v>0.53920138888888891</v>
+      </c>
+    </row>
+    <row r="3" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="G3" s="6">
+        <f>G1-G2</f>
+        <v>0.24943287037037043</v>
+      </c>
+      <c r="H3" s="7">
+        <v>1494.104697579</v>
+      </c>
+      <c r="I3" s="6">
+        <f>H3-G3</f>
+        <v>1493.8552647086296</v>
+      </c>
+    </row>
+    <row r="9" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="F9" s="2">
+        <v>42861.458333333336</v>
+      </c>
+      <c r="G9" s="6">
+        <f>F9</f>
+        <v>42861.458333333336</v>
+      </c>
+    </row>
+    <row r="13" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <v>1494293908185</v>
+      </c>
+      <c r="F13" s="2">
+        <f xml:space="preserve"> (E13 / 86400000) + DATE(1970,1,1) - 0.24943287</f>
+        <v>42863.818948900836</v>
+      </c>
+      <c r="G13" s="6">
+        <f>F13</f>
+        <v>42863.818948900836</v>
+      </c>
+    </row>
+    <row r="14" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <v>1494094229346</v>
+      </c>
+      <c r="F14" s="2">
+        <f xml:space="preserve"> (E14 / 86400000) + DATE(1970,1,1)</f>
+        <v>42861.757284097221</v>
+      </c>
+      <c r="G14" s="8">
+        <f>(F13 - DATE(1970,1,1)) * 86400000</f>
+        <v>1494272357185.0322</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <customProperties>
+    <customPr name="_pios_id" r:id="rId2"/>
+  </customProperties>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK67"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="E67" sqref="E67"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42027,15 +42139,18 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <customProperties>
+    <customPr name="_pios_id" r:id="rId1"/>
+  </customProperties>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W147"/>
   <sheetViews>
-    <sheetView topLeftCell="R4" workbookViewId="0">
-      <selection activeCell="E147" sqref="E147"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -51583,6 +51698,9 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <customProperties>
+    <customPr name="_pios_id" r:id="rId2"/>
+  </customProperties>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/planilhas.xlsx
+++ b/planilhas.xlsx
@@ -229,7 +229,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="h:mm:ss;@"/>
     <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="171" formatCode="0.000000000"/>
+    <numFmt numFmtId="166" formatCode="0.000000000"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -723,7 +723,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -4721,16 +4721,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>240030</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>725805</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>102870</xdr:rowOff>
+      <xdr:rowOff>26670</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>464820</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>64770</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>340995</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -42149,7 +42149,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W147"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
